--- a/currentbuild/StructureDefinition-OktEpisodeOfCare.xlsx
+++ b/currentbuild/StructureDefinition-OktEpisodeOfCare.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-13T11:41:55+00:00</t>
+    <t>2025-11-12T13:38:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/StructureDefinition-OktEpisodeOfCare.xlsx
+++ b/currentbuild/StructureDefinition-OktEpisodeOfCare.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-12T13:38:48+00:00</t>
+    <t>2025-11-12T13:47:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/StructureDefinition-OktEpisodeOfCare.xlsx
+++ b/currentbuild/StructureDefinition-OktEpisodeOfCare.xlsx
@@ -9,11 +9,14 @@
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$49</definedName>
+  </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2093" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1740" uniqueCount="311">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-12T13:47:08+00:00</t>
+    <t>2025-11-12T16:10:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -444,17 +447,17 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
-    <t>EpisodeOfCare.extension:weeklyExtentQuantity</t>
-  </si>
-  <si>
-    <t>weeklyExtentQuantity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.no/fhir/ig/okt/StructureDefinition/WeeklyExtentQuantity}
+    <t>EpisodeOfCare.extension:weeklyExtentRatio</t>
+  </si>
+  <si>
+    <t>weeklyExtentRatio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.no/fhir/ig/okt/StructureDefinition/WeeklyExtentRatio}
 </t>
   </si>
   <si>
-    <t>Sett hvis tjenesten gis i hjemmet; hvor mange timer per uke tjenesten gis</t>
+    <t>Sett hvis tjenesten gis i hjemmet; hvor mange timer i en periode tjenesten gis</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -734,30 +737,6 @@
     <t>./originalText[mediaType/code="text/plain"]/data</t>
   </si>
   <si>
-    <t>EpisodeOfCare.type:serviceLevel</t>
-  </si>
-  <si>
-    <t>serviceLevel</t>
-  </si>
-  <si>
-    <t>Kode for tjenestenivå</t>
-  </si>
-  <si>
-    <t>EpisodeOfCare.type:serviceLevel.id</t>
-  </si>
-  <si>
-    <t>EpisodeOfCare.type:serviceLevel.extension</t>
-  </si>
-  <si>
-    <t>EpisodeOfCare.type:serviceLevel.coding</t>
-  </si>
-  <si>
-    <t>http://hl7.no/fhir/ig/okt/ValueSet/OktServiceLevelVs</t>
-  </si>
-  <si>
-    <t>EpisodeOfCare.type:serviceLevel.text</t>
-  </si>
-  <si>
     <t>EpisodeOfCare.type:stayType</t>
   </si>
   <si>
@@ -780,33 +759,6 @@
   </si>
   <si>
     <t>EpisodeOfCare.type:stayType.text</t>
-  </si>
-  <si>
-    <t>EpisodeOfCare.type:needsCaption</t>
-  </si>
-  <si>
-    <t>needsCaption</t>
-  </si>
-  <si>
-    <t>Indikator for om det er behov for mer informasjon i GUI</t>
-  </si>
-  <si>
-    <t>EpisodeOfCare.type:needsCaption.id</t>
-  </si>
-  <si>
-    <t>EpisodeOfCare.type:needsCaption.extension</t>
-  </si>
-  <si>
-    <t>EpisodeOfCare.type:needsCaption.coding</t>
-  </si>
-  <si>
-    <t>&lt;valueCoding xmlns="http://hl7.org/fhir"&gt;
-  &lt;system value="http://hl7.no/fhir/ig/okt/CodeSystem/OktOrderDetailsCs"/&gt;
-  &lt;code value="needsCaption"/&gt;
-&lt;/valueCoding&gt;</t>
-  </si>
-  <si>
-    <t>EpisodeOfCare.type:needsCaption.text</t>
   </si>
   <si>
     <t>EpisodeOfCare.diagnosis</t>
@@ -900,7 +852,7 @@
 </t>
   </si>
   <si>
-    <t>Organization that assumes care</t>
+    <t>Referanse til organisasjon (avdeling i kommunen) som har ansvar for tjenesten</t>
   </si>
   <si>
     <t>The organization that has assumed the specific responsibilities for the specified duration.</t>
@@ -1165,6 +1117,21 @@
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="22"/>
+        <i val="true"/>
+      </font>
+    </dxf>
+  </dxfs>
 </styleSheet>
 </file>
 
@@ -1341,7 +1308,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM59"/>
+  <dimension ref="A1:AM49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1509,7 +1476,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
         <v>30</v>
       </c>
@@ -1618,7 +1585,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
         <v>85</v>
       </c>
@@ -1729,7 +1696,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
         <v>93</v>
       </c>
@@ -1838,7 +1805,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
         <v>99</v>
       </c>
@@ -1949,7 +1916,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
         <v>105</v>
       </c>
@@ -2060,7 +2027,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
         <v>114</v>
       </c>
@@ -2171,7 +2138,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
         <v>122</v>
       </c>
@@ -2282,7 +2249,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
         <v>130</v>
       </c>
@@ -2389,7 +2356,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
         <v>138</v>
       </c>
@@ -2521,7 +2488,7 @@
         <v>86</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>20</v>
@@ -2611,7 +2578,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
         <v>147</v>
       </c>
@@ -2724,7 +2691,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
         <v>154</v>
       </c>
@@ -2833,7 +2800,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
         <v>160</v>
       </c>
@@ -2944,7 +2911,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
         <v>169</v>
       </c>
@@ -3053,7 +3020,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
         <v>173</v>
       </c>
@@ -3162,7 +3129,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
         <v>178</v>
       </c>
@@ -3273,7 +3240,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
         <v>182</v>
       </c>
@@ -3386,7 +3353,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
         <v>187</v>
       </c>
@@ -3495,7 +3462,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
         <v>188</v>
       </c>
@@ -3604,7 +3571,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
         <v>192</v>
       </c>
@@ -3713,7 +3680,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
         <v>204</v>
       </c>
@@ -3826,7 +3793,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
         <v>207</v>
       </c>
@@ -3935,7 +3902,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
         <v>209</v>
       </c>
@@ -4046,7 +4013,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
         <v>212</v>
       </c>
@@ -4157,7 +4124,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
         <v>222</v>
       </c>
@@ -4270,7 +4237,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
         <v>230</v>
       </c>
@@ -4383,7 +4350,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
         <v>233</v>
       </c>
@@ -4492,7 +4459,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
         <v>234</v>
       </c>
@@ -4603,7 +4570,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
         <v>235</v>
       </c>
@@ -4714,7 +4681,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
         <v>237</v>
       </c>
@@ -4827,16 +4794,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
         <v>238</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="C32" t="s" s="2">
-        <v>239</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
         <v>20</v>
       </c>
@@ -4845,7 +4810,7 @@
         <v>77</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>20</v>
@@ -4857,17 +4822,15 @@
         <v>87</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>193</v>
+        <v>170</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="M32" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="N32" t="s" s="2">
-        <v>196</v>
-      </c>
+      <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>20</v>
@@ -4892,13 +4855,13 @@
         <v>20</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>197</v>
+        <v>20</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>198</v>
+        <v>20</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>199</v>
+        <v>20</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>20</v>
@@ -4916,7 +4879,7 @@
         <v>20</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>192</v>
+        <v>238</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>77</v>
@@ -4931,21 +4894,21 @@
         <v>98</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>202</v>
+        <v>20</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="33">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
         <v>241</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>208</v>
+        <v>241</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5049,12 +5012,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
         <v>242</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>210</v>
+        <v>242</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5124,16 +5087,16 @@
         <v>20</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>134</v>
+        <v>20</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>211</v>
+        <v>20</v>
       </c>
       <c r="AD34" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>135</v>
+        <v>20</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>181</v>
@@ -5160,16 +5123,16 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
         <v>243</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>213</v>
+        <v>243</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>20</v>
+        <v>183</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
@@ -5182,25 +5145,25 @@
         <v>20</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="J35" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>214</v>
+        <v>131</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>215</v>
+        <v>184</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>216</v>
+        <v>185</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>217</v>
+        <v>151</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>218</v>
+        <v>152</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>20</v>
@@ -5225,11 +5188,13 @@
         <v>20</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="Y35" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="Y35" t="s" s="2">
+        <v>20</v>
+      </c>
       <c r="Z35" t="s" s="2">
-        <v>244</v>
+        <v>20</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>20</v>
@@ -5247,7 +5212,7 @@
         <v>20</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>220</v>
+        <v>186</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>
@@ -5259,24 +5224,24 @@
         <v>20</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>221</v>
+        <v>129</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5284,7 +5249,7 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>86</v>
@@ -5299,20 +5264,16 @@
         <v>87</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>174</v>
+        <v>245</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>224</v>
+        <v>246</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>227</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>20</v>
       </c>
@@ -5360,10 +5321,10 @@
         <v>20</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>228</v>
+        <v>244</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>86</v>
@@ -5375,25 +5336,23 @@
         <v>98</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>20</v>
+        <v>248</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>229</v>
+        <v>20</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="37">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="C37" t="s" s="2">
-        <v>247</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
         <v>20</v>
       </c>
@@ -5417,14 +5376,12 @@
         <v>193</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>196</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>20</v>
@@ -5449,13 +5406,13 @@
         <v>20</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>197</v>
+        <v>110</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>198</v>
+        <v>253</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>199</v>
+        <v>254</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>20</v>
@@ -5473,13 +5430,13 @@
         <v>20</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>192</v>
+        <v>250</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>20</v>
@@ -5488,21 +5445,21 @@
         <v>98</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>202</v>
+        <v>20</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="38">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>208</v>
+        <v>255</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5522,16 +5479,16 @@
         <v>20</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>174</v>
+        <v>256</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>175</v>
+        <v>257</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>176</v>
+        <v>258</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -5582,7 +5539,7 @@
         <v>20</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>177</v>
+        <v>255</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>77</v>
@@ -5594,35 +5551,35 @@
         <v>20</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>20</v>
+        <v>98</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>84</v>
+        <v>20</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>210</v>
+        <v>259</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>148</v>
+        <v>20</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>20</v>
@@ -5631,20 +5588,18 @@
         <v>20</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>131</v>
+        <v>260</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>179</v>
+        <v>261</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>151</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="N39" s="2"/>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>20</v>
@@ -5681,48 +5636,48 @@
         <v>20</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>134</v>
+        <v>20</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>211</v>
+        <v>20</v>
       </c>
       <c r="AD39" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>135</v>
+        <v>20</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>181</v>
+        <v>259</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>20</v>
+        <v>263</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>84</v>
+        <v>20</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="40">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>251</v>
+        <v>265</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>213</v>
+        <v>265</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5730,7 +5685,7 @@
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>86</v>
@@ -5745,20 +5700,16 @@
         <v>87</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>214</v>
+        <v>266</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>215</v>
+        <v>267</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>218</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>20</v>
       </c>
@@ -5767,7 +5718,7 @@
         <v>20</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>252</v>
+        <v>20</v>
       </c>
       <c r="T40" t="s" s="2">
         <v>20</v>
@@ -5806,13 +5757,13 @@
         <v>20</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>220</v>
+        <v>265</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>20</v>
@@ -5821,21 +5772,21 @@
         <v>98</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>20</v>
+        <v>269</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>221</v>
+        <v>20</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>253</v>
+        <v>270</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>223</v>
+        <v>270</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -5843,7 +5794,7 @@
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>86</v>
@@ -5858,20 +5809,16 @@
         <v>87</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>224</v>
+        <v>271</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="O41" t="s" s="2">
-        <v>227</v>
-      </c>
+        <v>272</v>
+      </c>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>20</v>
       </c>
@@ -5919,7 +5866,7 @@
         <v>20</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>228</v>
+        <v>270</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>77</v>
@@ -5934,21 +5881,21 @@
         <v>98</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>20</v>
+        <v>273</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>229</v>
+        <v>20</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="42">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>254</v>
+        <v>275</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>254</v>
+        <v>275</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -5959,7 +5906,7 @@
         <v>77</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>20</v>
@@ -5968,16 +5915,16 @@
         <v>20</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>255</v>
+        <v>175</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>256</v>
+        <v>176</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6028,47 +5975,47 @@
         <v>20</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>254</v>
+        <v>177</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>98</v>
+        <v>20</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>20</v>
+        <v>148</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>20</v>
@@ -6080,15 +6027,17 @@
         <v>20</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>174</v>
+        <v>131</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="N43" s="2"/>
+        <v>180</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>151</v>
+      </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>20</v>
@@ -6125,31 +6074,31 @@
         <v>20</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>20</v>
+        <v>134</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>20</v>
+        <v>211</v>
       </c>
       <c r="AD43" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>20</v>
+        <v>135</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>20</v>
+        <v>137</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>20</v>
@@ -6161,23 +6110,23 @@
         <v>20</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>258</v>
+        <v>277</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>258</v>
+        <v>277</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>148</v>
+        <v>20</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>20</v>
@@ -6186,19 +6135,19 @@
         <v>20</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>131</v>
+        <v>278</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>179</v>
+        <v>279</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>180</v>
+        <v>280</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>151</v>
+        <v>281</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -6248,76 +6197,76 @@
         <v>20</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>181</v>
+        <v>282</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>20</v>
+        <v>283</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>84</v>
+        <v>284</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>259</v>
+        <v>285</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>259</v>
+        <v>285</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>183</v>
+        <v>20</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="J45" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>131</v>
+        <v>278</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>184</v>
+        <v>286</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>185</v>
+        <v>287</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>152</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>20</v>
       </c>
-      <c r="Q45" s="2"/>
+      <c r="Q45" t="s" s="2">
+        <v>289</v>
+      </c>
       <c r="R45" t="s" s="2">
         <v>20</v>
       </c>
@@ -6361,36 +6310,36 @@
         <v>20</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>186</v>
+        <v>290</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>20</v>
+        <v>283</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>129</v>
+        <v>291</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>260</v>
+        <v>292</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>260</v>
+        <v>292</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6398,10 +6347,10 @@
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>20</v>
@@ -6410,16 +6359,16 @@
         <v>20</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>261</v>
+        <v>293</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>262</v>
+        <v>294</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>263</v>
+        <v>295</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -6470,13 +6419,13 @@
         <v>20</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>260</v>
+        <v>292</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>20</v>
@@ -6485,21 +6434,21 @@
         <v>98</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>264</v>
+        <v>296</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="47">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>266</v>
+        <v>297</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>266</v>
+        <v>297</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6519,16 +6468,16 @@
         <v>20</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>193</v>
+        <v>298</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>267</v>
+        <v>299</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>268</v>
+        <v>300</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -6555,13 +6504,13 @@
         <v>20</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>269</v>
+        <v>20</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>270</v>
+        <v>20</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>20</v>
@@ -6579,7 +6528,7 @@
         <v>20</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>266</v>
+        <v>297</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>77</v>
@@ -6594,7 +6543,7 @@
         <v>98</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>20</v>
+        <v>269</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>20</v>
@@ -6603,23 +6552,23 @@
         <v>20</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>271</v>
+        <v>301</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>271</v>
+        <v>301</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>20</v>
+        <v>302</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>20</v>
@@ -6628,16 +6577,16 @@
         <v>20</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>272</v>
+        <v>303</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>273</v>
+        <v>304</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>274</v>
+        <v>305</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -6688,13 +6637,13 @@
         <v>20</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>271</v>
+        <v>301</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>20</v>
@@ -6703,7 +6652,7 @@
         <v>98</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>20</v>
+        <v>269</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>20</v>
@@ -6712,12 +6661,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>275</v>
+        <v>306</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>275</v>
+        <v>306</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -6725,10 +6674,10 @@
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>20</v>
@@ -6737,18 +6686,20 @@
         <v>20</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>276</v>
+        <v>307</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>277</v>
+        <v>308</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="N49" s="2"/>
+        <v>309</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>310</v>
+      </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>20</v>
@@ -6797,13 +6748,13 @@
         <v>20</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>275</v>
+        <v>306</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>20</v>
@@ -6812,1116 +6763,34 @@
         <v>98</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>279</v>
+        <v>20</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="B50" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="C50" s="2"/>
-      <c r="D50" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="E50" s="2"/>
-      <c r="F50" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G50" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H50" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I50" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J50" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K50" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="L50" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="N50" s="2"/>
-      <c r="O50" s="2"/>
-      <c r="P50" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q50" s="2"/>
-      <c r="R50" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="S50" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="T50" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U50" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V50" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W50" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X50" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y50" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z50" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA50" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB50" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC50" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD50" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE50" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF50" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="AG50" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH50" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI50" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ50" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK50" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="AL50" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM50" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="B51" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="C51" s="2"/>
-      <c r="D51" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="E51" s="2"/>
-      <c r="F51" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G51" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H51" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I51" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J51" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K51" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="N51" s="2"/>
-      <c r="O51" s="2"/>
-      <c r="P51" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q51" s="2"/>
-      <c r="R51" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="S51" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="T51" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U51" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V51" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W51" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X51" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y51" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z51" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA51" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB51" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC51" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD51" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE51" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF51" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="AG51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH51" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI51" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ51" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK51" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="AL51" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM51" t="s" s="2">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="B52" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="C52" s="2"/>
-      <c r="D52" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="E52" s="2"/>
-      <c r="F52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G52" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H52" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I52" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J52" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="K52" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="N52" s="2"/>
-      <c r="O52" s="2"/>
-      <c r="P52" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q52" s="2"/>
-      <c r="R52" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="S52" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="T52" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U52" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V52" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W52" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X52" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y52" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z52" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA52" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB52" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC52" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD52" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE52" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF52" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="AG52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH52" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI52" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ52" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AK52" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL52" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AM52" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="B53" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="C53" s="2"/>
-      <c r="D53" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="E53" s="2"/>
-      <c r="F53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H53" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I53" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J53" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="K53" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="O53" s="2"/>
-      <c r="P53" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q53" s="2"/>
-      <c r="R53" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="S53" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="T53" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U53" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V53" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W53" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X53" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y53" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z53" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA53" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB53" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AC53" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="AD53" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE53" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AF53" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="AG53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI53" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ53" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AK53" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL53" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AM53" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="B54" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="C54" s="2"/>
-      <c r="D54" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="E54" s="2"/>
-      <c r="F54" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G54" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H54" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I54" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J54" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K54" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="O54" s="2"/>
-      <c r="P54" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q54" s="2"/>
-      <c r="R54" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="S54" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="T54" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U54" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V54" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W54" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X54" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y54" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z54" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA54" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB54" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC54" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD54" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE54" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF54" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="AG54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH54" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI54" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="AJ54" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK54" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL54" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="AM54" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="B55" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="C55" s="2"/>
-      <c r="D55" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="E55" s="2"/>
-      <c r="F55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G55" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H55" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I55" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J55" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K55" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="O55" s="2"/>
-      <c r="P55" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q55" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="R55" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="S55" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="T55" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U55" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V55" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W55" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X55" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y55" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z55" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA55" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB55" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC55" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD55" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE55" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF55" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="AG55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH55" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI55" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="AJ55" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK55" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL55" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="AM55" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="B56" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="C56" s="2"/>
-      <c r="D56" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="E56" s="2"/>
-      <c r="F56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H56" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I56" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J56" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="K56" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="N56" s="2"/>
-      <c r="O56" s="2"/>
-      <c r="P56" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q56" s="2"/>
-      <c r="R56" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="S56" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="T56" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U56" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V56" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W56" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X56" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y56" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z56" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA56" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB56" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC56" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD56" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE56" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF56" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="AG56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI56" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ56" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK56" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="AL56" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM56" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="B57" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="C57" s="2"/>
-      <c r="D57" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="E57" s="2"/>
-      <c r="F57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G57" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H57" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I57" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J57" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="K57" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="N57" s="2"/>
-      <c r="O57" s="2"/>
-      <c r="P57" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q57" s="2"/>
-      <c r="R57" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="S57" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="T57" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U57" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V57" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W57" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X57" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y57" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z57" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA57" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB57" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC57" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD57" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE57" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF57" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="AG57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH57" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI57" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ57" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK57" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="AL57" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM57" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="B58" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="C58" s="2"/>
-      <c r="D58" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="E58" s="2"/>
-      <c r="F58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H58" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I58" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J58" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="K58" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="N58" s="2"/>
-      <c r="O58" s="2"/>
-      <c r="P58" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q58" s="2"/>
-      <c r="R58" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="S58" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="T58" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U58" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V58" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W58" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X58" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y58" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z58" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA58" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB58" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC58" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD58" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE58" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF58" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="AG58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI58" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ58" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK58" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="AL58" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM58" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="B59" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="C59" s="2"/>
-      <c r="D59" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="E59" s="2"/>
-      <c r="F59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H59" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I59" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J59" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="K59" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="O59" s="2"/>
-      <c r="P59" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q59" s="2"/>
-      <c r="R59" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="S59" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="T59" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U59" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V59" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W59" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X59" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y59" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z59" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA59" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB59" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC59" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD59" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE59" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF59" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="AG59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI59" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ59" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK59" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL59" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM59" t="s" s="2">
         <v>20</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AM49">
+    <filterColumn colId="7">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+    <filterColumn colId="27">
+      <filters blank="true"/>
+    </filterColumn>
+  </autoFilter>
+  <conditionalFormatting sqref="A2:AI48">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$G2&lt;&gt;"Y"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$Q2&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/currentbuild/StructureDefinition-OktEpisodeOfCare.xlsx
+++ b/currentbuild/StructureDefinition-OktEpisodeOfCare.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-12T16:10:30+00:00</t>
+    <t>2025-11-14T11:11:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
